--- a/client/public/templates/Edit_agendamentos.xlsx
+++ b/client/public/templates/Edit_agendamentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scope\client\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScopeSystem\client\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299D6136-8817-46DC-A2A3-4199F43605CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C818BD1-38B3-4BB4-B9FA-8A46533E191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Chassi</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Tipo de Serviço</t>
+  </si>
+  <si>
+    <t>Prestador</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>9BD341ACZRY920097</t>
+  </si>
+  <si>
+    <t>concluido</t>
+  </si>
+  <si>
+    <t>TCROSS</t>
+  </si>
+  <si>
+    <t>424R22</t>
+  </si>
+  <si>
+    <t>instalação</t>
+  </si>
+  <si>
+    <t>trop</t>
+  </si>
+  <si>
+    <t>mp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,8 +91,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -76,15 +127,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Ênfase3" xfId="2" builtinId="39"/>
     <cellStyle name="60% - Ênfase5" xfId="1" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -364,23 +420,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>46073</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
